--- a/data/component_cost_lca_data.xlsx
+++ b/data/component_cost_lca_data.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\building_impact_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5787BC8A-B4D8-4DD6-9235-25764F8EBE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C8B4F0-AB36-4FD6-9CC5-377B2C7275A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RS Means BC Cost Data" sheetId="10" r:id="rId1"/>
-    <sheet name="All LCA Data" sheetId="11" r:id="rId2"/>
-    <sheet name="Components Cost-LCA Coupled" sheetId="12" r:id="rId3"/>
-    <sheet name="USEEIO data (unused-old)" sheetId="15" r:id="rId4"/>
-    <sheet name="HVAC systems" sheetId="13" r:id="rId5"/>
+    <sheet name="RS_Means_BC_Cost_Data" sheetId="10" r:id="rId1"/>
+    <sheet name="All_LCA_Data" sheetId="11" r:id="rId2"/>
+    <sheet name="Cost_LCA_Coupled" sheetId="12" r:id="rId3"/>
+    <sheet name="test_fp" sheetId="16" r:id="rId4"/>
+    <sheet name="test_comp" sheetId="17" r:id="rId5"/>
+    <sheet name="USEEIO_data" sheetId="15" r:id="rId6"/>
+    <sheet name="HVAC_systems" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'All LCA Data'!$A$1:$M$203</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RS Means BC Cost Data'!$A$1:$I$290</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">All_LCA_Data!$A$1:$M$203</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RS_Means_BC_Cost_Data!$A$1:$I$290</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8284" uniqueCount="1764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8264" uniqueCount="1781">
   <si>
     <t>type</t>
   </si>
@@ -5336,6 +5338,57 @@
   </si>
   <si>
     <t>USEEIO v2.1: USEEIO analysis for Code 333414/US:Heating equipment (except warm air furnaces) manufacturing. Input was demand vector with only $1025 for 333414/US.</t>
+  </si>
+  <si>
+    <t>fid</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>wool</t>
+  </si>
+  <si>
+    <t>nylon</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>silk</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>component_join</t>
+  </si>
+  <si>
+    <t>upstairs a</t>
+  </si>
+  <si>
+    <t>downstairs b</t>
   </si>
 </sst>
 </file>
@@ -5423,10 +5476,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5753,8 +5802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00A43C7-5EDC-420A-BAE1-7DE9263A4D1A}">
   <dimension ref="A1:I290"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showOutlineSymbols="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A220" sqref="A220:C227"/>
     </sheetView>
   </sheetViews>
@@ -19268,11 +19317,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6DC4AD-2D50-45A7-B323-E74BBFC6E484}">
-  <dimension ref="A1:S237"/>
+  <dimension ref="A1:S213"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A214" sqref="A214:XFD214"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A214" sqref="A214:XFD237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -28583,198 +28632,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>831</v>
-      </c>
-      <c r="B214" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>833</v>
-      </c>
-      <c r="B215" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>834</v>
-      </c>
-      <c r="B216" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>835</v>
-      </c>
-      <c r="B217" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>836</v>
-      </c>
-      <c r="B218" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>837</v>
-      </c>
-      <c r="B219" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>838</v>
-      </c>
-      <c r="B220" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>839</v>
-      </c>
-      <c r="B221" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>840</v>
-      </c>
-      <c r="B222" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>841</v>
-      </c>
-      <c r="B223" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>842</v>
-      </c>
-      <c r="B224" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>843</v>
-      </c>
-      <c r="B225" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>844</v>
-      </c>
-      <c r="B226" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>845</v>
-      </c>
-      <c r="B227" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>846</v>
-      </c>
-      <c r="B228" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>847</v>
-      </c>
-      <c r="B229" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>848</v>
-      </c>
-      <c r="B230" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>849</v>
-      </c>
-      <c r="B231" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>850</v>
-      </c>
-      <c r="B232" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>851</v>
-      </c>
-      <c r="B233" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>852</v>
-      </c>
-      <c r="B234" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>853</v>
-      </c>
-      <c r="B235" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>854</v>
-      </c>
-      <c r="B236" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>855</v>
-      </c>
-      <c r="B237" t="s">
-        <v>832</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28782,6 +28639,153 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A623DF7-8824-47EF-81D7-78EB44C59BE6}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FC1A9E-6FD9-4DE2-9760-917D84C43308}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6753FF9-DA34-424A-8D40-CFFBE1264805}">
   <dimension ref="A1:H334"/>
   <sheetViews>
@@ -36125,7 +36129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD869C7-5BB3-42EF-8B5A-18BD78666649}">
   <dimension ref="A1:B1"/>
   <sheetViews>

--- a/data/component_cost_lca_data.xlsx
+++ b/data/component_cost_lca_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\building_impact_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C8B4F0-AB36-4FD6-9CC5-377B2C7275A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448B364C-FE87-43FC-AD58-6B7EBC4997F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8264" uniqueCount="1781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8307" uniqueCount="1800">
   <si>
     <t>type</t>
   </si>
@@ -5385,10 +5385,67 @@
     <t>component_join</t>
   </si>
   <si>
-    <t>upstairs a</t>
-  </si>
-  <si>
-    <t>downstairs b</t>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
   </si>
 </sst>
 </file>
@@ -28640,10 +28697,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A623DF7-8824-47EF-81D7-78EB44C59BE6}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -28673,7 +28730,7 @@
         <v>1766</v>
       </c>
       <c r="C2" t="s">
-        <v>1779</v>
+        <v>1797</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -28687,9 +28744,23 @@
         <v>1767</v>
       </c>
       <c r="C3" t="s">
-        <v>1780</v>
+        <v>1798</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
@@ -28700,10 +28771,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FC1A9E-6FD9-4DE2-9760-917D84C43308}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B2" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -28778,6 +28849,166 @@
       </c>
       <c r="B9" t="s">
         <v>1772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>898</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1774</v>
       </c>
     </row>
   </sheetData>

--- a/data/component_cost_lca_data.xlsx
+++ b/data/component_cost_lca_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\building_impact_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242F5887-28B7-4476-AE66-4EE27B97D146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99173236-ECB2-4DB3-9F24-9A63255B2534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="30" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS_Means_BC_Cost_Data" sheetId="10" r:id="rId1"/>
@@ -5868,8 +5868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00A43C7-5EDC-420A-BAE1-7DE9263A4D1A}">
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+    <sheetView showOutlineSymbols="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A242" sqref="A242:XFD244"/>
     </sheetView>
   </sheetViews>
@@ -13476,9 +13476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8B3923-9D95-405B-A0EC-4AC4B020387B}">
   <dimension ref="A1:M195"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A142" sqref="A142:XFD147"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29614,13 +29614,15 @@
   <dimension ref="A1:H334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -36961,7 +36963,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.375" customWidth="1"/>
+    <col min="1" max="1" width="63.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
